--- a/data/student_var_count.xlsx
+++ b/data/student_var_count.xlsx
@@ -10256,7 +10256,7 @@
         <v>430</v>
       </c>
       <c r="C129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129" t="s">
         <v>409</v>
